--- a/ComList1.xlsx
+++ b/ComList1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siah Wee Hung\Desktop\Folders\2. School\NTU\Internship\Panasonic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siah Wee Hung\Desktop\Folders\2. School\NTU\Internship\Panasonic\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9657270-BBF7-4040-9271-7B22560E7D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B17D51-B236-4C58-8972-B3CB7B8FFF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C554E7FE-461C-4E38-A4C5-40220A96476C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="388">
   <si>
     <t>Aisle411</t>
   </si>
@@ -926,9 +926,6 @@
     <t>GeniusMatcher</t>
   </si>
   <si>
-    <t>Mobile app based indoor navigation for conference venues, shopping centers, and museums.</t>
-  </si>
-  <si>
     <t>Computer vision</t>
   </si>
   <si>
@@ -1191,6 +1188,18 @@
   </si>
   <si>
     <t>https://nerian.com/</t>
+  </si>
+  <si>
+    <t>http://www.aisle411.com/</t>
+  </si>
+  <si>
+    <t>https://www.artisense.ai/</t>
+  </si>
+  <si>
+    <t>http://augmentedpixels.com/</t>
+  </si>
+  <si>
+    <t>Mobile app based indoor navigation: 6% accuracy for conference venues, shopping centers, and museums.</t>
   </si>
 </sst>
 </file>
@@ -1761,10 +1770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67315C7E-8B81-488D-84FD-B5DEEF1D1AE1}">
-  <dimension ref="B2:F98"/>
+  <dimension ref="B2:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1773,7 +1782,7 @@
     <col min="6" max="6" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B2" s="1">
         <v>489</v>
       </c>
@@ -1789,8 +1798,11 @@
       <c r="F2" s="19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>490</v>
       </c>
@@ -1806,8 +1818,11 @@
       <c r="F3" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="83.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="83.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>491</v>
       </c>
@@ -1823,8 +1838,11 @@
       <c r="F4" s="19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>492</v>
       </c>
@@ -1841,7 +1859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>493</v>
       </c>
@@ -1858,7 +1876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>494</v>
       </c>
@@ -1875,7 +1893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>495</v>
       </c>
@@ -1892,7 +1910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>496</v>
       </c>
@@ -1909,7 +1927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>497</v>
       </c>
@@ -1926,7 +1944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>498</v>
       </c>
@@ -1943,7 +1961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>499</v>
       </c>
@@ -1960,7 +1978,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>500</v>
       </c>
@@ -1977,7 +1995,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>501</v>
       </c>
@@ -1994,7 +2012,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>502</v>
       </c>
@@ -2011,7 +2029,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>503</v>
       </c>
@@ -3492,8 +3510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2644E91-E50A-4EA8-B4D9-BF3DF121B342}">
   <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3517,11 +3535,11 @@
       <c r="E2" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="20" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>143</v>
       </c>
@@ -3529,13 +3547,13 @@
         <v>295</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="11" t="s">
         <v>297</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -3543,16 +3561,16 @@
         <v>166</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>300</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -3560,16 +3578,16 @@
         <v>231</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="11" t="s">
         <v>304</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="58" x14ac:dyDescent="0.35">
@@ -3577,16 +3595,16 @@
         <v>235</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="11" t="s">
         <v>308</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="29" x14ac:dyDescent="0.35">
@@ -3594,16 +3612,16 @@
         <v>288</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="29" x14ac:dyDescent="0.35">
@@ -3611,16 +3629,16 @@
         <v>291</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="11" t="s">
         <v>315</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="87" x14ac:dyDescent="0.35">
@@ -3628,16 +3646,16 @@
         <v>346</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="58" x14ac:dyDescent="0.35">
@@ -3645,16 +3663,16 @@
         <v>367</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>321</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
@@ -3662,16 +3680,16 @@
         <v>378</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="11" t="s">
         <v>325</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="87" x14ac:dyDescent="0.35">
@@ -3682,10 +3700,10 @@
         <v>133</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>135</v>
@@ -3699,10 +3717,10 @@
         <v>154</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>156</v>
@@ -3713,16 +3731,16 @@
         <v>401</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>332</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="58" x14ac:dyDescent="0.35">
@@ -3730,16 +3748,16 @@
         <v>404</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>335</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="87" x14ac:dyDescent="0.35">
@@ -3750,10 +3768,10 @@
         <v>163</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>165</v>
@@ -3764,16 +3782,16 @@
         <v>410</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>339</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
@@ -3784,10 +3802,10 @@
         <v>193</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>195</v>
@@ -3798,13 +3816,13 @@
         <v>426</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>213</v>
@@ -3815,16 +3833,16 @@
         <v>433</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="11" t="s">
         <v>347</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -3832,16 +3850,16 @@
         <v>437</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>350</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="29" x14ac:dyDescent="0.35">
@@ -3849,16 +3867,16 @@
         <v>460</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="E22" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>353</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="29" x14ac:dyDescent="0.35">
@@ -3866,16 +3884,16 @@
         <v>463</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="E23" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="17" t="s">
         <v>357</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
@@ -3883,16 +3901,16 @@
         <v>467</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="E24" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>360</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="58" x14ac:dyDescent="0.35">
@@ -3900,16 +3918,16 @@
         <v>469</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="E25" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="16" t="s">
         <v>364</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="29" x14ac:dyDescent="0.35">
@@ -3917,16 +3935,16 @@
         <v>472</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="E26" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="16" t="s">
         <v>368</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="58" x14ac:dyDescent="0.35">
@@ -3934,16 +3952,16 @@
         <v>475</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="E27" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>371</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
@@ -3951,16 +3969,16 @@
         <v>479</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="E28" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
@@ -3968,16 +3986,16 @@
         <v>480</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="E29" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>377</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
@@ -3985,16 +4003,16 @@
         <v>481</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="E30" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F30" s="18" t="s">
         <v>380</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
@@ -4002,16 +4020,16 @@
         <v>487</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="E31" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>383</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -4024,6 +4042,7 @@
     <hyperlink ref="F23" r:id="rId1" xr:uid="{ACB39CEB-684C-4AEA-AB2E-8A307C8E73D7}"/>
     <hyperlink ref="F30" r:id="rId2" xr:uid="{A6177CF2-1C6B-42D2-88AD-D4DD6F85CCCE}"/>
     <hyperlink ref="F31" r:id="rId3" xr:uid="{8077985E-5377-42B4-9D2F-CAC77D67819E}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{17AE04C6-E1AC-4F4D-9E3D-0ACCF0840E5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
